--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322259.061560525</v>
+        <v>319653.9938601675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2989156.853416515</v>
+        <v>2995243.613506388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20349704.61069185</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821032.195206849</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2968606583479769</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.61706312961832</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G11" t="n">
         <v>25.62029119463083</v>
@@ -1391,7 +1391,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D13" t="n">
         <v>25.62029119463083</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E14" t="n">
         <v>25.62029119463083</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2968606583479628</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
         <v>25.62029119463083</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>27.59002526031614</v>
@@ -2056,19 +2056,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2132,16 +2132,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W20" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>83.03189205754171</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>91.89556019850257</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>137.0424786983366</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>26.97848197950847</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>56.91690033700354</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2919,25 +2919,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>215.3939976830282</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>215.3939976830282</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>99.18221148611876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,56 +3038,56 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>179.7283339446665</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>68.21377427677575</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>132.4946865849765</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>76.51768856808505</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>204.9483021474179</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,67 +3506,67 @@
         <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>39.84991521806154</v>
+      </c>
+      <c r="T38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="E38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>27.65687453492416</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>199.4303350649351</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>215.3939976830282</v>
@@ -3645,10 +3645,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="G41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>187.9840913941556</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>69.90824021335401</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.7256592341942</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.99869455743244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>2.049623295570466</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049623295570466</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
@@ -4811,10 +4811,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
         <v>77.1170764958388</v>
@@ -4841,13 +4841,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>2.049623295570466</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>2.049623295570466</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N9" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
         <v>102.4811647785233</v>
@@ -4905,28 +4905,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G10" t="n">
-        <v>102.1813055276668</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H10" t="n">
-        <v>76.30222351288816</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I10" t="n">
-        <v>50.42314149810954</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J10" t="n">
         <v>24.54405948333093</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4811647785233</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="F11" t="n">
-        <v>91.75685858698967</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G11" t="n">
-        <v>65.87777657221105</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H11" t="n">
-        <v>39.99869455743244</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I11" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
         <v>77.1170764958388</v>
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F12" t="n">
-        <v>2.049623295570466</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G12" t="n">
-        <v>2.049623295570466</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M12" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N12" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5142,28 +5142,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.6020827637447</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="C13" t="n">
-        <v>76.6020827637447</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="D13" t="n">
-        <v>50.72300074896609</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E13" t="n">
-        <v>50.72300074896609</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F13" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G13" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H13" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I13" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
         <v>2.049623295570466</v>
@@ -5209,7 +5209,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
@@ -5242,7 +5242,7 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C14" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D14" t="n">
-        <v>76.6020827637447</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E14" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5282,16 +5282,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G15" t="n">
-        <v>2.049623295570466</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H15" t="n">
-        <v>2.049623295570466</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O15" t="n">
         <v>51.75298821315428</v>
@@ -5379,28 +5379,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5446,7 +5446,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
@@ -5519,16 +5519,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="M17" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="N17" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="M17" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="N17" t="n">
-        <v>83.04597603355158</v>
-      </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5595,16 +5595,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>28.41772601812563</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O18" t="n">
         <v>110.3601010412646</v>
@@ -5695,25 +5695,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S19" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>52.75142891054807</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>24.88271652639035</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="V19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y19" t="n">
         <v>2.207202020825291</v>
@@ -5771,22 +5771,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>358.0940480307835</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
         <v>19.28114311021272</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>277.6047704292607</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C21" t="n">
-        <v>103.1517411481337</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D21" t="n">
-        <v>103.1517411481337</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E21" t="n">
-        <v>103.1517411481337</v>
+        <v>487.6699538238614</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>341.1353958507464</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>202.4045704333619</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5926,22 +5926,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.5858968043354</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="28">
@@ -6403,25 +6403,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>208.8669068441485</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>17.23151981464226</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>17.23151981464226</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23151981464226</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>17.23151981464226</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>300.3223773102232</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M29" t="n">
-        <v>513.5624350164212</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>719.4169572236606</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>861.5759907321129</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>861.5759907321129</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>861.5759907321129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>861.5759907321129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>861.5759907321129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>861.5759907321129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>861.5759907321129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>644.0062961027915</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>426.43660147347</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>142.5890798724797</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>355.8291375786776</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>396.2978968992348</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>609.5379546054328</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>609.5379546054328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1814322187836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>760.4064612849986</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>760.4064612849986</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>760.4064612849986</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>542.8367666556771</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>325.2670720263557</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W30" t="n">
-        <v>325.2670720263557</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>117.4155718208228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>44.54564482235524</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>83.73368301457742</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4245336700137</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>151.763810304913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C32" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
         <v>17.23151981464226</v>
@@ -6701,16 +6701,16 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N32" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O32" t="n">
         <v>771.915935440062</v>
@@ -6719,10 +6719,10 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
         <v>669.9406037026066</v>
@@ -6731,19 +6731,19 @@
         <v>669.9406037026066</v>
       </c>
       <c r="U32" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V32" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W32" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X32" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y32" t="n">
-        <v>452.3709090732851</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>644.0062961027915</v>
+        <v>351.6761367540105</v>
       </c>
       <c r="C33" t="n">
-        <v>644.0062961027915</v>
+        <v>177.2231074728835</v>
       </c>
       <c r="D33" t="n">
-        <v>575.103493803018</v>
+        <v>177.2231074728835</v>
       </c>
       <c r="E33" t="n">
-        <v>415.8660387975625</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>269.3314808244475</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>130.6006554070629</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>221.8558176135191</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>435.095875319717</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N33" t="n">
-        <v>648.335933025915</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O33" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P33" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
@@ -6810,19 +6810,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>644.0062961027915</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V33" t="n">
-        <v>644.0062961027915</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W33" t="n">
-        <v>644.0062961027915</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X33" t="n">
-        <v>644.0062961027915</v>
+        <v>653.7244905265801</v>
       </c>
       <c r="Y33" t="n">
-        <v>644.0062961027915</v>
+        <v>519.8914737740786</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6938,7 +6938,7 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
         <v>203.6264053839766</v>
@@ -6974,10 +6974,10 @@
         <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X35" t="n">
-        <v>644.0062961027915</v>
+        <v>426.43660147347</v>
       </c>
       <c r="Y35" t="n">
         <v>426.43660147347</v>
@@ -7017,49 +7017,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>152.4612591001897</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
-        <v>365.7013168063877</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N36" t="n">
-        <v>578.9413745125856</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P36" t="n">
-        <v>792.1814322187836</v>
+        <v>839.595170546587</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>861.5759907321129</v>
+        <v>784.2853962188957</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>610.8680516695646</v>
       </c>
       <c r="T36" t="n">
-        <v>659.389396090879</v>
+        <v>610.8680516695646</v>
       </c>
       <c r="U36" t="n">
-        <v>452.3709090732851</v>
+        <v>610.8680516695646</v>
       </c>
       <c r="V36" t="n">
-        <v>234.8012144439637</v>
+        <v>393.2983570402431</v>
       </c>
       <c r="W36" t="n">
-        <v>17.23151981464226</v>
+        <v>393.2983570402431</v>
       </c>
       <c r="X36" t="n">
-        <v>17.23151981464226</v>
+        <v>185.4468568347103</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.23151981464226</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C38" t="n">
-        <v>452.3709090732851</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
         <v>17.23151981464226</v>
@@ -7175,7 +7175,7 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
         <v>203.6264053839766</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="T38" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U38" t="n">
-        <v>851.4843753638859</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V38" t="n">
-        <v>851.4843753638859</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W38" t="n">
-        <v>851.4843753638859</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X38" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y38" t="n">
-        <v>669.9406037026066</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="C39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="D39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="E39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="F39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="G39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="H39" t="n">
         <v>17.23151981464226</v>
@@ -7260,13 +7260,13 @@
         <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>355.8291375786776</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N39" t="n">
-        <v>569.0691952848756</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O39" t="n">
-        <v>678.932513118762</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P39" t="n">
         <v>861.5759907321129</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="U39" t="n">
-        <v>660.1312078382391</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="V39" t="n">
-        <v>442.5615132089176</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="W39" t="n">
-        <v>224.9918185795962</v>
+        <v>253.0192569241389</v>
       </c>
       <c r="X39" t="n">
-        <v>224.9918185795962</v>
+        <v>45.16775671860606</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.23151981464226</v>
+        <v>45.16775671860606</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.1169902094293</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C41" t="n">
-        <v>638.1169902094293</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1169902094293</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>638.1169902094293</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>422.536925949487</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>206.9568616895446</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>206.9568616895446</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7421,7 +7421,7 @@
         <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
         <v>764.0369991773207</v>
@@ -7448,13 +7448,13 @@
         <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>638.1169902094293</v>
+        <v>422.536925949487</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.07394108938743</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="C42" t="n">
-        <v>17.07394108938743</v>
+        <v>87.68832514328037</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>87.68832514328037</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>87.68832514328037</v>
       </c>
       <c r="F42" t="n">
         <v>17.07394108938743</v>
@@ -7491,13 +7491,13 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>228.3639620705569</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>439.6539830517264</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N42" t="n">
         <v>459.7635558748512</v>
@@ -7518,22 +7518,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>655.994368374226</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>655.994368374226</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>440.4143041142837</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
-        <v>224.8342398543413</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X42" t="n">
-        <v>224.8342398543413</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>430.3566914444754</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>111.3761432274407</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>111.3761432274407</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>111.3761432274407</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>111.3761432274407</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>111.3761432274407</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
         <v>17.07394108938743</v>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,13 +8307,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8459,13 +8459,13 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>256.8532869499004</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M9" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
         <v>256.8532869499004</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8930,10 +8930,10 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8942,7 +8942,7 @@
         <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9018,7 +9018,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
         <v>159.5946986089611</v>
@@ -9167,19 +9167,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
         <v>169.7240591823345</v>
@@ -9255,7 +9255,7 @@
         <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>353.9483774629024</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
-        <v>183.0115685892478</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>346.7357097663615</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2455896777295</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
         <v>357.5280316050465</v>
@@ -10440,13 +10440,13 @@
         <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>357.9902421274727</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M35" t="n">
         <v>445.740230910301</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>148.5262779896823</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
         <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>346.7357097663615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>162.1846227582699</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M38" t="n">
         <v>445.740230910301</v>
@@ -10908,16 +10908,16 @@
         <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>211.409123942969</v>
       </c>
       <c r="O39" t="n">
-        <v>253.5692927615014</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11069,10 +11069,10 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>333.8446085143028</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>151.6544119046715</v>
+        <v>238.4548774837949</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8484382006936</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>132.8841224430275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>360.1674891792497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.6941187001108</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>396.2589826120931</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G11" t="n">
         <v>389.6824463205042</v>
@@ -23279,7 +23279,7 @@
         <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23416,7 +23416,7 @@
         <v>154.2116889873065</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D13" t="n">
         <v>122.9951818235815</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>122.8546955387004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2877926937468</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>360.1674891792497</v>
       </c>
       <c r="C14" t="n">
         <v>339.6526005763767</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E14" t="n">
         <v>356.3100788776309</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>187.9095370861751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>196.4265727766561</v>
@@ -23944,7 +23944,7 @@
         <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
-        <v>263.8702699959815</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="20">
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W20" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.03732033584217</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>20.3398840379939</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24105,13 +24105,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>35.66602028997912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24452,19 +24452,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>85.25696225698799</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.3398439804523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>175.5538586117964</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24725,10 +24725,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>154.3371029954408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>10.54738439794659</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>17.40658946639704</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>106.5004842911856</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,22 +24959,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29173564157887</v>
+        <v>19.30103642703409</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>79.231291287863</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>73.18800919232785</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X35" t="n">
         <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.8439409730254</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>23.64014558455808</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>20.99307993355688</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,10 +25394,10 @@
         <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>166.5363723892335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>169.1701543681838</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>190.0027667338026</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>84.57856970157231</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,13 +25518,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>26.51104701603975</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>17.40658946639704</v>
@@ -25533,10 +25533,10 @@
         <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>22.49179817625028</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
         <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>198.253847261898</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>75.16097218002987</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25758,13 +25758,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>4.439069460627451</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>106.6061751778739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25807,7 +25807,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350049.7958156171</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350049.7958156169</v>
+        <v>350049.795815617</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351685.049566824</v>
+        <v>351685.0495668241</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107076</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488398.3911706115</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488398.3911706117</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488398.3911706117</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>63121.07616893066</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
         <v>63121.07616893067</v>
@@ -26323,31 +26323,31 @@
         <v>63121.07616893067</v>
       </c>
       <c r="F2" t="n">
-        <v>63121.07616893066</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="G2" t="n">
-        <v>63415.7618187435</v>
+        <v>63415.76181874351</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88052.58645764725</v>
+      </c>
+      <c r="M2" t="n">
         <v>88052.58645764727</v>
       </c>
-      <c r="L2" t="n">
-        <v>88052.58645764727</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>88052.58645764728</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
         <v>87796.12542771843</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8277.165051769143</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>11244.18577987448</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>11299.21161664248</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>15899.57777605044</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>15899.57777605043</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>15899.57777605043</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>15899.57777605043</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>15851.6895168862</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>13095.95505912812</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15002.70297086521</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>8414.411632653479</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>16691.57668442264</v>
+        <v>8463.818372101341</v>
       </c>
       <c r="E6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>50319.17668442262</v>
+        <v>50049.84942588953</v>
       </c>
       <c r="G6" t="n">
-        <v>49899.20210488044</v>
+        <v>49628.5935865654</v>
       </c>
       <c r="H6" t="n">
-        <v>2628.454590704194</v>
+        <v>2236.224345158615</v>
       </c>
       <c r="I6" t="n">
-        <v>60212.24173303586</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="J6" t="n">
-        <v>60212.24173303584</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="K6" t="n">
-        <v>59057.05362246872</v>
+        <v>59820.01148749032</v>
       </c>
       <c r="L6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>59057.05362246874</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="N6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.32698494983</v>
       </c>
       <c r="O6" t="n">
-        <v>58968.24068289778</v>
+        <v>58591.62910884903</v>
       </c>
       <c r="P6" t="n">
-        <v>48630.30297086521</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>215.3939976830282</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>25.62029119463083</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P11" t="n">
         <v>25.62029119463083</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35580,7 +35580,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M14" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="P15" t="n">
         <v>25.62029119463083</v>
@@ -35887,19 +35887,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M17" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
         <v>27.59002526031614</v>
@@ -35975,7 +35975,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36838,16 +36838,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>215.3939976830282</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
-        <v>40.87753466722953</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37081,7 +37081,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>206.6912098978554</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
         <v>215.3939976830282</v>
@@ -37160,13 +37160,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>215.3939976830282</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M35" t="n">
         <v>215.3939976830282</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>9.971898209808174</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M38" t="n">
         <v>215.3939976830282</v>
@@ -37628,16 +37628,16 @@
         <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
+        <v>80.06741185963574</v>
+      </c>
+      <c r="O39" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="O39" t="n">
-        <v>110.973048317057</v>
-      </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>104.4315449177119</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>20.31269982133822</v>
+        <v>107.1131654004615</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
